--- a/output/summaryOutput2.xlsx
+++ b/output/summaryOutput2.xlsx
@@ -42,12 +42,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002f7a30"/>
+        <fgColor rgb="00a8324a"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00a8324a"/>
+        <fgColor rgb="002f7a30"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,7 +382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,8 +442,8 @@
           <t>sheet1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0.004089999999999927</v>
+      <c r="B2" t="n">
+        <v>0.002469999999999972</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -452,11 +452,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019.03.27</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+          <t>2018.08.09</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>-0.0005100000000000104</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2018.01.31</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -464,7 +474,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -472,7 +482,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -481,8 +491,8 @@
           <t>sheet2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0.000280000000000058</v>
+      <c r="B3" s="3" t="n">
+        <v>0.002579999999999805</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -491,11 +501,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2019.03.22</t>
+          <t>2018.02.06</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.001639999999999864</v>
+        <v>-0.003919999999999924</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -504,7 +514,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2019.03.27</t>
+          <t>2018.08.07</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -513,7 +523,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -521,7 +531,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -530,30 +540,30 @@
           <t>sheet3</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>0.003850000000000131</v>
+      <c r="B4" s="3" t="n">
+        <v>0.001159999999999828</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2019.04.04</t>
+          <t>2018.02.21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.0021199999999999</v>
+        <v>-0.0002899999999999014</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2019.08.05</t>
+          <t>2018.05.14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -562,7 +572,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>76.92307692307693</v>
+        <v>64.83516483516483</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -570,7 +580,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>23.07692307692308</v>
+        <v>35.16483516483517</v>
       </c>
     </row>
     <row r="5">
@@ -579,8 +589,8 @@
           <t>sheet4</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0.0003500000000000725</v>
+      <c r="B5" s="3" t="n">
+        <v>0.0009999999999998899</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -589,11 +599,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2019.05.17</t>
+          <t>2018.03.23</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.001170000000000115</v>
+        <v>-0.004059999999999953</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -602,7 +612,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2019.08.30</t>
+          <t>2018.05.14</t>
         </is>
       </c>
     </row>
@@ -613,7 +623,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002100000000000435</v>
+        <v>0.005499999999999838</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -622,11 +632,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2019.08.30</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>-0.0002099999999998214</v>
+          <t>2018.05.14</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>-0.0008899999999998354</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -635,8 +645,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2019.05.15</t>
-        </is>
+          <t>2018.03.23</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Total Profit</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0.12279</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Total Loss</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.05561</v>
       </c>
     </row>
     <row r="7">
@@ -645,8 +671,8 @@
           <t>sheet6</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0.001129999999999853</v>
+      <c r="B7" s="3" t="n">
+        <v>0.00254999999999983</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -655,11 +681,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2019.06.07</t>
+          <t>2018.03.19</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.002590000000000092</v>
+        <v>-0.003689999999999971</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -668,8 +694,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2019.08.29</t>
-        </is>
+          <t>2018.05.14</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Average Profit</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0.00208</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Average Loss</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.00174</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +721,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.005269999999999886</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -688,11 +730,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2019.08.29</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>-0.002499999999999947</v>
+          <t>2018.05.14</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>-0.001309999999999922</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -701,7 +743,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2019.06.07</t>
+          <t>2018.03.19</t>
         </is>
       </c>
     </row>
@@ -711,8 +753,8 @@
           <t>sheet8</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0.00112000000000001</v>
+      <c r="B9" t="n">
+        <v>0.0009099999999999664</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -721,11 +763,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2019.05.29</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.002769999999999939</v>
+          <t>2018.05.10</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>-0.001360000000000028</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -734,7 +776,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2019.06.07</t>
+          <t>2018.03.23</t>
         </is>
       </c>
     </row>
@@ -745,7 +787,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001440000000000108</v>
+        <v>0.00378999999999996</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -754,11 +796,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2019.08.30</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>-0.003989999999999938</v>
+          <t>2018.05.10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-0.000180000000000069</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -767,7 +809,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2019.06.05</t>
+          <t>2018.03.26</t>
         </is>
       </c>
     </row>
@@ -777,8 +819,8 @@
           <t>sheet10</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0.001069999999999904</v>
+      <c r="B11" s="3" t="n">
+        <v>0.002289999999999903</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -787,11 +829,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2019.06.25</t>
+          <t>2018.03.27</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.001900000000000013</v>
+        <v>-0.005950000000000122</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -800,7 +842,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2019.08.22</t>
+          <t>2018.05.10</t>
         </is>
       </c>
     </row>
@@ -810,8 +852,8 @@
           <t>sheet11</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0.0003500000000000725</v>
+      <c r="B12" s="3" t="n">
+        <v>0.001720000000000166</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -820,11 +862,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2019.06.14</t>
+          <t>2018.04.24</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.00266999999999995</v>
+        <v>-0.001870000000000038</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -833,7 +875,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2019.06.26</t>
+          <t>2018.12.10</t>
         </is>
       </c>
     </row>
@@ -843,8 +885,8 @@
           <t>sheet12</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>0.002560000000000118</v>
+      <c r="B13" t="n">
+        <v>0.002739999999999965</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -853,11 +895,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2019.06.26</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.0021199999999999</v>
+          <t>2018.12.10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>-0.001400000000000068</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -866,7 +908,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2019.08.22</t>
+          <t>2018.04.24</t>
         </is>
       </c>
     </row>
@@ -876,8 +918,8 @@
           <t>sheet13</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.000420000000000087</v>
+      <c r="B14" s="3" t="n">
+        <v>0.000400000000000178</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -886,11 +928,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2019.08.19</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>-0.001649999999999929</v>
+          <t>2018.04.18</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.0006600000000001049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -899,7 +941,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2019.07.17</t>
+          <t>2018.12.10</t>
         </is>
       </c>
     </row>
@@ -909,8 +951,8 @@
           <t>sheet14</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>0.0005299999999999194</v>
+      <c r="B15" t="n">
+        <v>0.0001700000000000035</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -919,11 +961,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2019.07.17</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.000340000000000007</v>
+          <t>2018.11.20</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>-0.007479999999999931</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -932,7 +974,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2019.08.16</t>
+          <t>2018.05.10</t>
         </is>
       </c>
     </row>
@@ -942,8 +984,8 @@
           <t>sheet15</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>0.00275000000000003</v>
+      <c r="B16" s="3" t="n">
+        <v>0.0002099999999998214</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -952,11 +994,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2019.08.07</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
+          <t>2018.05.14</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.002730000000000121</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2018.06.14</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -965,41 +1017,41 @@
           <t>sheet16</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.0009900000000000464</v>
+      <c r="B17" s="3" t="n">
+        <v>0.0001700000000000035</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2019.08.07</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>-0.002179999999999849</v>
+          <t>2018.06.08</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.000220000000000109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2019.08.05</t>
+          <t>2018.07.13</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>sheet18</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>0.0005399999999999849</v>
+          <t>sheet17</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0.006839999999999957</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1008,11 +1060,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2019.08.05</t>
+          <t>2018.06.14</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.001340000000000119</v>
+        <v>-0.00340000000000007</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1021,18 +1073,18 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2019.08.07</t>
+          <t>2018.07.13</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>sheet19</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>0.00254999999999983</v>
+          <t>sheet18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0004699999999999704</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1041,21 +1093,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2019.08.21</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
+          <t>2018.07.13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>-0.0005500000000000504</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2018.06.08</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>sheet20</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>0.0005599999999998939</v>
+          <t>sheet19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.002550000000000052</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1064,44 +1126,64 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2019.08.21</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+          <t>2018.06.29</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>-0.003980000000000095</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2018.06.14</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>sheet21</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>0.0009600000000000719</v>
+          <t>sheet20</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0.005700000000000038</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2019.08.28</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+          <t>2018.06.14</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.0009099999999999664</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2018.06.29</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>sheet22</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>0.005509999999999904</v>
+          <t>sheet21</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0.005900000000000016</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1110,77 +1192,97 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2019.09.13</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+          <t>2018.06.28</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.002410000000000023</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2018.11.14</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>sheet23</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>0.005449999999999955</v>
+          <t>sheet22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.004460000000000131</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2019.09.13</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+          <t>2018.11.06</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>-0.001390000000000002</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2018.07.13</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>sheet24</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>0.001330000000000053</v>
+          <t>sheet23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01217999999999986</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2019.10.08</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.000260000000000149</v>
+          <t>2018.08.09</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>-0.0006099999999999994</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2019.11.08</t>
+          <t>2018.07.26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>sheet25</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>0.000700000000000145</v>
+          <t>sheet24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.002860000000000085</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1189,11 +1291,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2019.10.23</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.0004100000000000215</v>
+          <t>2018.10.19</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>-9.999999999843467e-06</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1202,18 +1304,18 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2019.11.07</t>
+          <t>2018.08.06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>sheet27</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.000480000000000036</v>
+          <t>sheet25</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>0.0006200000000000649</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1222,11 +1324,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2019.11.05</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>-0.001020000000000021</v>
+          <t>2018.08.03</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.002140000000000031</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1235,30 +1337,2015 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2019.10.23</t>
+          <t>2018.10.19</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>sheet26</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0.002129999999999965</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2018.08.03</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.00124000000000013</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2018.10.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>sheet27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.00448000000000004</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2018.11.06</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>-0.003570000000000073</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2018.08.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>sheet28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.003040000000000154</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2018.10.19</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>-0.004070000000000018</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2018.08.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
           <t>sheet29</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B30" s="3" t="n">
+        <v>0.01289000000000007</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2018.08.09</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.002510000000000012</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2018.08.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>sheet31</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0.003759999999999986</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2018.08.23</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>sheet32</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0.003509999999999902</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2018.08.23</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>sheet34</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>7.00000000000145e-05</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2018.10.16</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>sheet36</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0.0005100000000000104</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2018.10.16</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>sheet37</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0.00116000000000005</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2018.10.16</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>sheet38</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0.0004999999999999449</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2018.10.16</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>sheet39</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0.0006800000000000139</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2018.10.16</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>sheet40</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>0.00107999999999997</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2018.10.08</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.002510000000000012</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2018.10.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>sheet42</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0.00391000000000008</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2018.10.16</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>sheet44</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>0.001829999999999998</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2018.11.06</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>sheet45</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0.001919999999999922</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2018.12.04</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.003819999999999935</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2019.09.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>sheet46</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.000380000000000047</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2019.04.18</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>-0.00175000000000014</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2018.12.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>sheet47</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.001319999999999988</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2019.04.18</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>-0.001130000000000075</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2018.12.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>sheet48</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0.002780000000000005</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2018.12.05</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.0005500000000000504</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2019.09.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>sheet49</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0007099999999999884</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2019.01.08</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>-0.000340000000000007</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2019.01.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>sheet50</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0004299999999999304</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2019.02.13</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>-0.003230000000000066</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2019.01.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>sheet51</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0007399999999999629</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2019.02.13</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>-0.0001700000000000035</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2019.01.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>sheet52</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>0.0007100000000002105</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2019.01.04</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.002160000000000162</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2019.02.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>sheet53</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>0.001130000000000075</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2019.01.04</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.002150000000000096</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2019.02.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>sheet54</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.001659999999999995</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2019.04.17</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>-0.003780000000000117</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2019.02.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>sheet55</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.00258999999999987</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2019.04.18</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>-0.002070000000000016</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2019.02.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>sheet56</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>0.003090000000000037</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2019.02.13</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.001979999999999871</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2019.04.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>sheet57</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.006299999999999972</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2019.09.13</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>-0.001599999999999824</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2019.01.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>sheet58</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>0.00266999999999995</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019.02.13</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.005489999999999995</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2019.04.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>sheet59</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.000240000000000018</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019.04.08</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>-0.0002100000000000435</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2019.02.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>sheet60</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.001829999999999998</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019.04.10</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>-0.0006099999999999994</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2019.02.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>sheet61</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>0.002229999999999954</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019.02.13</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.0002099999999998214</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2019.04.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>sheet62</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>0.0005699999999999594</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2019.02.13</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.0003699999999999815</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2019.04.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>sheet63</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>0.001609999999999889</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2019.03.08</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.001390000000000002</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2019.04.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>sheet64</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>0.0007700000000001594</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019.03.12</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.0009099999999999664</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2019.04.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>sheet65</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0007200000000000539</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2019.04.03</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>-0.0005100000000000104</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2019.03.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>sheet66</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0005699999999999594</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2019.04.03</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>-0.001350000000000184</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2019.03.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>sheet67</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>0.001149999999999984</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2019.03.08</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.001759999999999984</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2019.04.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>sheet68</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>0.0007999999999999119</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2019.03.08</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.00240000000000018</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2019.04.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>sheet69</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>0.001650000000000151</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2019.03.12</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.001309999999999922</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2019.04.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>sheet70</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>0.001560000000000006</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2019.03.08</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.003700000000000037</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2019.04.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>sheet71</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>0.004089999999999927</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2019.03.27</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>sheet72</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>0.000280000000000058</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2019.03.22</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.001639999999999864</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2019.03.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>sheet73</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>0.003850000000000131</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2019.04.04</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.0021199999999999</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2019.08.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>sheet74</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>0.0003500000000000725</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2019.05.17</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.001170000000000115</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2019.08.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>sheet75</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0002100000000000435</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2019.08.30</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>-0.0002099999999998214</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2019.05.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>sheet76</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>0.001129999999999853</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2019.06.07</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.002590000000000092</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2019.08.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>sheet77</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.001800000000000024</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2019.08.29</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>-0.002499999999999947</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2019.06.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>sheet78</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>0.00112000000000001</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2019.05.29</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.002769999999999939</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2019.06.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>sheet79</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.001440000000000108</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2019.08.30</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>-0.003989999999999938</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2019.06.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>sheet80</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>0.001069999999999904</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2019.06.25</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.001900000000000013</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2019.08.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>sheet81</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>0.0003500000000000725</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2019.06.14</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.00266999999999995</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2019.06.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>sheet82</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>0.002560000000000118</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2019.06.26</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.0021199999999999</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2019.08.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>sheet83</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.000420000000000087</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2019.08.19</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>-0.001649999999999929</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2019.07.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>sheet84</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>0.0005299999999999194</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2019.07.17</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.000340000000000007</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2019.08.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>sheet85</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>0.00275000000000003</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2019.08.07</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>sheet86</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0009900000000000464</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2019.08.07</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>-0.002179999999999849</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2019.08.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>sheet88</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>0.0005399999999999849</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2019.08.05</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.001340000000000119</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2019.08.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>sheet89</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>0.00254999999999983</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2019.08.21</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>sheet90</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>0.0005599999999998939</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2019.08.21</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>sheet91</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>0.0009600000000000719</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2019.08.28</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>sheet92</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>0.005509999999999904</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2019.09.13</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>sheet93</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>0.005449999999999955</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2019.09.13</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>sheet94</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>0.001330000000000053</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2019.10.08</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.000260000000000149</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2019.11.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>sheet95</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>0.000700000000000145</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2019.10.23</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.0004100000000000215</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2019.11.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>sheet97</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.000480000000000036</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2019.11.05</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>-0.001020000000000021</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2019.10.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>sheet99</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="n">
         <v>0.001300000000000079</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>2019.11.07</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G92" t="n">
         <v>0</v>
       </c>
     </row>
